--- a/REGULAR/CCT/LEPARDO, ROWENA.xlsx
+++ b/REGULAR/CCT/LEPARDO, ROWENA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="517">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1681,6 +1681,9 @@
   </si>
   <si>
     <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2384,7 +2387,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K711" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2713,12 +2716,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K711"/>
+  <dimension ref="A2:K712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4065" topLeftCell="A520" activePane="bottomLeft"/>
+      <pane ySplit="4065" topLeftCell="A517" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="K533" sqref="K533"/>
+      <selection pane="bottomLeft" activeCell="F537" sqref="F537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,7 +2886,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.111000000000111</v>
+        <v>49.361000000000111</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2893,7 +2896,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>104.12199999999999</v>
+        <v>104.37199999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14707,27 +14710,37 @@
       <c r="A534" s="41">
         <v>45200</v>
       </c>
-      <c r="B534" s="20"/>
-      <c r="C534" s="13"/>
+      <c r="B534" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C534" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D534" s="39"/>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H534" s="39"/>
+      <c r="G534" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H534" s="39">
+        <v>1</v>
+      </c>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="20"/>
+      <c r="K534" s="50">
+        <v>45212</v>
+      </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="41">
-        <v>45231</v>
-      </c>
-      <c r="B535" s="20"/>
+      <c r="A535" s="40"/>
+      <c r="B535" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C535" s="13"/>
-      <c r="D535" s="39"/>
+      <c r="D535" s="39">
+        <v>1</v>
+      </c>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
       <c r="G535" s="13" t="str">
@@ -14737,15 +14750,21 @@
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
-      <c r="K535" s="20"/>
+      <c r="K535" s="50">
+        <v>45225</v>
+      </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="41">
-        <v>45261</v>
-      </c>
-      <c r="B536" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B536" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C536" s="13"/>
-      <c r="D536" s="39"/>
+      <c r="D536" s="39">
+        <v>1</v>
+      </c>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
       <c r="G536" s="13" t="str">
@@ -14755,15 +14774,21 @@
       <c r="H536" s="39"/>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
+      <c r="K536" s="50">
+        <v>45253</v>
+      </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="41">
-        <v>45292</v>
-      </c>
-      <c r="B537" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B537" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="C537" s="13"/>
-      <c r="D537" s="39"/>
+      <c r="D537" s="39">
+        <v>3</v>
+      </c>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
       <c r="G537" s="13" t="str">
@@ -14773,11 +14798,13 @@
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20"/>
+      <c r="K537" s="20" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="41">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14795,7 +14822,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="41">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14813,7 +14840,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="41">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14831,7 +14858,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="41">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14849,7 +14876,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="41">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14867,7 +14894,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="41">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14885,7 +14912,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="41">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14903,7 +14930,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="41">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14921,7 +14948,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="41">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14939,7 +14966,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="41">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14957,7 +14984,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="41">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14975,7 +15002,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="41">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14993,7 +15020,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="41">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15011,7 +15038,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="41">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15029,7 +15056,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="41">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15047,7 +15074,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="41">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15065,7 +15092,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="41">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15083,7 +15110,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="41">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15101,7 +15128,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="41">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15119,7 +15146,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="41">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15137,7 +15164,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="41">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15155,7 +15182,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="41">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15173,7 +15200,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="41">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15191,7 +15218,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="41">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15209,7 +15236,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="41">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15227,7 +15254,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="41">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15245,7 +15272,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="41">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15263,7 +15290,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="41">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15281,7 +15308,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="41">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15299,7 +15326,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="41">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15317,7 +15344,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="41">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15335,7 +15362,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="41">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15353,7 +15380,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="41">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15371,7 +15398,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="41">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15389,7 +15416,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="41">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15407,7 +15434,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="41">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15425,7 +15452,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="41">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15443,7 +15470,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="41">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15461,7 +15488,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="41">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15479,7 +15506,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="41">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15497,7 +15524,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="41">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15515,7 +15542,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="41">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15533,7 +15560,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="41">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15551,7 +15578,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="41">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15569,7 +15596,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="41">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15587,7 +15614,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15605,7 +15632,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="41">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15623,7 +15650,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="41">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15641,7 +15668,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="41">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15659,7 +15686,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="41">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15677,7 +15704,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="41">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15695,7 +15722,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="41">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15713,7 +15740,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="41">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15731,7 +15758,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="41">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15749,7 +15776,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="41">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15767,7 +15794,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="41">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15785,7 +15812,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="41">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15803,7 +15830,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="41">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15821,7 +15848,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="41">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15839,7 +15866,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="41">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15857,7 +15884,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="41">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15875,7 +15902,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="41">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15893,7 +15920,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="41">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15911,7 +15938,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="41">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15929,7 +15956,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="41">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15947,7 +15974,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="41">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15965,7 +15992,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="41">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15983,7 +16010,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="41">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16001,7 +16028,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="41">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16019,7 +16046,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="41">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16037,7 +16064,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="41">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16055,7 +16082,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="41">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16073,7 +16100,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="41">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16091,7 +16118,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="41">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16109,7 +16136,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="41">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16127,7 +16154,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="41">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16145,7 +16172,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="41">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16163,7 +16190,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="41">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16181,7 +16208,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="41">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16199,7 +16226,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="41">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16217,7 +16244,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="41">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16235,7 +16262,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="41">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16253,7 +16280,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="41">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16271,7 +16298,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="41">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16289,7 +16316,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="41">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16307,7 +16334,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="41">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16325,7 +16352,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="41">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16343,7 +16370,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="41">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16361,7 +16388,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="41">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16379,7 +16406,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="41">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16397,7 +16424,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="41">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16415,7 +16442,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="41">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16433,7 +16460,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="41">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16451,7 +16478,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="41">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16469,7 +16496,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="41">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16487,7 +16514,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="41">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16505,7 +16532,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="41">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16523,7 +16550,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="41">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16541,7 +16568,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="41">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16559,7 +16586,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="41">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16577,7 +16604,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="41">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16595,7 +16622,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="41">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16613,7 +16640,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="41">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16631,7 +16658,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="41">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16649,7 +16676,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="41">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16667,7 +16694,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="41">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16685,7 +16712,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="41">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16703,7 +16730,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="41">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16721,7 +16748,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="41">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16739,7 +16766,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="41">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16757,7 +16784,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="41">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16775,7 +16802,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="41">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16793,7 +16820,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="41">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16811,7 +16838,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="41">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16829,7 +16856,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="41">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16847,7 +16874,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="41">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16865,7 +16892,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="41">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16883,7 +16910,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="41">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16901,7 +16928,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="41">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16919,7 +16946,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="41">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16937,7 +16964,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="41">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16955,7 +16982,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="41">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16973,7 +17000,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="41">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16991,7 +17018,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="41">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17009,7 +17036,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="41">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17027,7 +17054,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="41">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17045,7 +17072,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="41">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17063,7 +17090,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="41">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17081,7 +17108,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="41">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17099,7 +17126,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="41">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17117,7 +17144,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="41">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17135,7 +17162,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="41">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17153,7 +17180,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="41">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17171,7 +17198,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="41">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17189,7 +17216,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="41">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17207,7 +17234,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="41">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17225,7 +17252,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="41">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17243,7 +17270,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="41">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17261,7 +17288,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="41">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17279,7 +17306,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="41">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17297,7 +17324,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="41">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17315,7 +17342,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="41">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17333,7 +17360,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="41">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17351,7 +17378,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="41">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17369,7 +17396,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="41">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17387,7 +17414,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="41">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17405,7 +17432,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="41">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17423,7 +17450,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="41">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17441,7 +17468,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="41">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17459,7 +17486,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="41">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17477,7 +17504,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="41">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17495,7 +17522,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="41">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17513,7 +17540,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="41">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17531,7 +17558,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="41">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17549,7 +17576,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="41">
-        <v>50010</v>
+        <v>49980</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17567,7 +17594,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="41">
-        <v>50041</v>
+        <v>50010</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17585,7 +17612,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="41">
-        <v>50072</v>
+        <v>50041</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17603,7 +17630,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="41">
-        <v>50100</v>
+        <v>50072</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17621,7 +17648,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="41">
-        <v>50131</v>
+        <v>50100</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17639,7 +17666,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="41">
-        <v>50161</v>
+        <v>50131</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17657,7 +17684,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="41">
-        <v>50192</v>
+        <v>50161</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17675,7 +17702,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="41">
-        <v>50222</v>
+        <v>50192</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17693,7 +17720,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="41">
-        <v>50253</v>
+        <v>50222</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17711,7 +17738,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="41">
-        <v>50284</v>
+        <v>50253</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17729,7 +17756,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="41">
-        <v>50314</v>
+        <v>50284</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17747,7 +17774,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="41">
-        <v>50345</v>
+        <v>50314</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17765,7 +17792,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="41">
-        <v>50375</v>
+        <v>50345</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17783,7 +17810,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="41">
-        <v>50406</v>
+        <v>50375</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17801,7 +17828,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="41">
-        <v>50437</v>
+        <v>50406</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17819,7 +17846,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="41">
-        <v>50465</v>
+        <v>50437</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -17837,7 +17864,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="41">
-        <v>50496</v>
+        <v>50465</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -17855,7 +17882,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="41">
-        <v>50526</v>
+        <v>50496</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -17873,7 +17900,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="41">
-        <v>50557</v>
+        <v>50526</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -17891,7 +17918,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="41">
-        <v>50587</v>
+        <v>50557</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -17906,6 +17933,24 @@
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A712" s="41">
+        <v>50587</v>
+      </c>
+      <c r="B712" s="20"/>
+      <c r="C712" s="13"/>
+      <c r="D712" s="39"/>
+      <c r="E712" s="9"/>
+      <c r="F712" s="20"/>
+      <c r="G712" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H712" s="39"/>
+      <c r="I712" s="9"/>
+      <c r="J712" s="11"/>
+      <c r="K712" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
